--- a/Lista1.xlsx
+++ b/Lista1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mój dysk\Projekty ABAX\Sveaverken\Udostępniony SVEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da01efd315aaf959/Pulpit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0040E5B-B0DB-46A8-9197-F8838FBB4CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_52ADF7845B105E5CE3D92211595ED87656CDFA43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C9D4C6-0CD3-4132-806D-FF3949590C39}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>title</t>
   </si>
@@ -28,261 +28,273 @@
     <t>url</t>
   </si>
   <si>
+    <t>Set and unbind owner</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bKfZ9JJdV0I</t>
+  </si>
+  <si>
+    <t>How to set base station parameters in app</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mw7hVlsWGv0</t>
+  </si>
+  <si>
     <t>V1 base station with Android phone</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0vaDIAHFLHw</t>
   </si>
   <si>
+    <t>Create pivot guidance line</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IyIRtOMb3HM</t>
+  </si>
+  <si>
+    <t>V1 base station with iphone</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_bYZXzNi8xI</t>
+  </si>
+  <si>
+    <t>How to start operation (without advanced mode)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XjYA448Ny08</t>
+  </si>
+  <si>
+    <t>handline以及边界操作</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JbFRKCSSIbM</t>
+  </si>
+  <si>
+    <t>Share guidence line online</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Gyd5yYkX_Q</t>
+  </si>
+  <si>
+    <t>How to config v1 receiver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS9NepV1rOQ</t>
+  </si>
+  <si>
+    <t>Imu cable flash</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MwgTXVOcy2o</t>
+  </si>
+  <si>
+    <t>Implement calibration</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TUdWLqAlNao</t>
+  </si>
+  <si>
+    <t>Implement library</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jC1P3vSQARk</t>
+  </si>
+  <si>
+    <t>Create boundary</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=38PQe-MZDDE</t>
+  </si>
+  <si>
+    <t>No angle sensor mode</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QNTPz-pzkwM</t>
+  </si>
+  <si>
+    <t>Coefficient commissioning</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fpftmhbzGFo</t>
+  </si>
+  <si>
+    <t>Create a new field</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ic4qODk3otA</t>
+  </si>
+  <si>
+    <t>smart approaching</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mb6WgoT3oBg</t>
+  </si>
+  <si>
+    <t>How to calibrate the GNSS receiver to the central axis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q8nJTWXyPWQ</t>
+  </si>
+  <si>
+    <t>How to create an account</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X3s7PXK8guE</t>
+  </si>
+  <si>
+    <t>Demo mode</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UNCliTHoysI</t>
+  </si>
+  <si>
+    <t>How to clear cache</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cL0bFeetS_E</t>
+  </si>
+  <si>
+    <t>Easy control</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3_T7-iClSjk</t>
+  </si>
+  <si>
+    <t>Heading calibrate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9J8Oa76jGG8</t>
+  </si>
+  <si>
+    <t>Activate Advanced Mode</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NDZZdbh3LQ8</t>
+  </si>
+  <si>
+    <t>handland</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RMSI2RNw68A</t>
+  </si>
+  <si>
+    <t>How to translate guidance line</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QCkW98sNwcg</t>
+  </si>
+  <si>
+    <t>NRTK</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SM9zExoOfTY</t>
+  </si>
+  <si>
+    <t>attitude angle sensor calibration</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YWWyOAH7TrQ</t>
+  </si>
+  <si>
+    <t>NMEA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hyLUqzf21K0</t>
+  </si>
+  <si>
+    <t>Baud rate change</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oww7fy1HgjE</t>
+  </si>
+  <si>
+    <t>Vehicle library</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NiZNQIo0-d8</t>
+  </si>
+  <si>
+    <t>How to use trimming function</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YI3S-kqqes0</t>
+  </si>
+  <si>
+    <t>V1 base station with high power radio(iPhone)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VS0xOjtfUOE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aSjVYMCWXag</t>
+  </si>
+  <si>
+    <t>basic utrun</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2WC1E5SDFwQ</t>
+  </si>
+  <si>
+    <t>A+line</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZfagOpcpqEo</t>
+  </si>
+  <si>
+    <t>how to start operation (with advanced mode)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KM0gAaCIT5Y</t>
+  </si>
+  <si>
+    <t>Remote control</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8JOvERFnVwk</t>
+  </si>
+  <si>
+    <t>ABline</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g1xn4MDOsc0</t>
+  </si>
+  <si>
+    <t>How to update firmware with OTG</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-3zo5R6rUfQ</t>
+  </si>
+  <si>
+    <t>phone&amp;#39;s hotpot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6E4K383P1I</t>
+  </si>
+  <si>
+    <t>NTRIP</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ln6rx0g00vU</t>
+  </si>
+  <si>
+    <t>Base station connection</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wM16uyzQaGI</t>
+  </si>
+  <si>
+    <t>How to check sim ping code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jbSwFW4oMIo</t>
+  </si>
+  <si>
     <t>V1 base station with high power radio(Android phone)</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=pfhdtcmqcNM</t>
   </si>
   <si>
-    <t>Create pivot guidance line</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IyIRtOMb3HM</t>
-  </si>
-  <si>
-    <t>V1 base station with iphone</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_bYZXzNi8xI</t>
-  </si>
-  <si>
-    <t>How to start operation (without advanced mode)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XjYA448Ny08</t>
-  </si>
-  <si>
-    <t>handline以及边界操作</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JbFRKCSSIbM</t>
-  </si>
-  <si>
-    <t>Share guidence line online</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1Gyd5yYkX_Q</t>
-  </si>
-  <si>
-    <t>How to config v1 receiver</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS9NepV1rOQ</t>
-  </si>
-  <si>
-    <t>Implement calibration</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TUdWLqAlNao</t>
-  </si>
-  <si>
-    <t>Implement library</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jC1P3vSQARk</t>
-  </si>
-  <si>
-    <t>Create boundary</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=38PQe-MZDDE</t>
-  </si>
-  <si>
-    <t>Coefficient commissioning</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fpftmhbzGFo</t>
-  </si>
-  <si>
-    <t>Create a new field</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ic4qODk3otA</t>
-  </si>
-  <si>
-    <t>smart approaching</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mb6WgoT3oBg</t>
-  </si>
-  <si>
-    <t>How to calibrate the GNSS receiver to the central axis</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Q8nJTWXyPWQ</t>
-  </si>
-  <si>
-    <t>How to create an account</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X3s7PXK8guE</t>
-  </si>
-  <si>
-    <t>Demo mode</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UNCliTHoysI</t>
-  </si>
-  <si>
-    <t>How to clear cache</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cL0bFeetS_E</t>
-  </si>
-  <si>
-    <t>Easy control</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3_T7-iClSjk</t>
-  </si>
-  <si>
-    <t>Heading calibrate</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9J8Oa76jGG8</t>
-  </si>
-  <si>
-    <t>Activate Advanced Mode</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NDZZdbh3LQ8</t>
-  </si>
-  <si>
-    <t>handland</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RMSI2RNw68A</t>
-  </si>
-  <si>
-    <t>How to translate guidance line</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QCkW98sNwcg</t>
-  </si>
-  <si>
-    <t>NRTK</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SM9zExoOfTY</t>
-  </si>
-  <si>
-    <t>attitude angle sensor calibration</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YWWyOAH7TrQ</t>
-  </si>
-  <si>
-    <t>NMEA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hyLUqzf21K0</t>
-  </si>
-  <si>
-    <t>Baud rate change</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oww7fy1HgjE</t>
-  </si>
-  <si>
-    <t>Vehicle library</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NiZNQIo0-d8</t>
-  </si>
-  <si>
-    <t>How to use trimming function</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YI3S-kqqes0</t>
-  </si>
-  <si>
-    <t>V1 base station with high power radio(iPhone)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VS0xOjtfUOE</t>
-  </si>
-  <si>
-    <t>Set and unbind owner</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bKfZ9JJdV0I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aSjVYMCWXag</t>
-  </si>
-  <si>
-    <t>basic utrun</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2WC1E5SDFwQ</t>
-  </si>
-  <si>
-    <t>No angle sensor mode</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QNTPz-pzkwM</t>
-  </si>
-  <si>
-    <t>A+line</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZfagOpcpqEo</t>
-  </si>
-  <si>
-    <t>how to start operation (with advanced mode)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KM0gAaCIT5Y</t>
-  </si>
-  <si>
-    <t>How to set base station parameters in app</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Mw7hVlsWGv0</t>
-  </si>
-  <si>
-    <t>Remote control</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8JOvERFnVwk</t>
-  </si>
-  <si>
-    <t>ABline</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=g1xn4MDOsc0</t>
-  </si>
-  <si>
-    <t>phone&amp;#39;s hotpot</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6E4K383P1I</t>
-  </si>
-  <si>
-    <t>NTRIP</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ln6rx0g00vU</t>
-  </si>
-  <si>
-    <t>Base station connection</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wM16uyzQaGI</t>
-  </si>
-  <si>
-    <t>How to check sim ping code</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jbSwFW4oMIo</t>
-  </si>
-  <si>
     <t>Upgrade system</t>
   </si>
   <si>
@@ -308,6 +320,90 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=hMAhenPpRSc</t>
+  </si>
+  <si>
+    <t>How to update system with OTG</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7G8MRjKNssY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pty8fNFqRFE</t>
+  </si>
+  <si>
+    <t>how to select time zone</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E0IiVhXBIPs</t>
+  </si>
+  <si>
+    <t>change language</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ojaAI2isrm4</t>
+  </si>
+  <si>
+    <t>how to delete ISOBUS object pool</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JVgRzhO1yPE</t>
+  </si>
+  <si>
+    <t>How to use remote control</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5VSYSzAW6l0</t>
+  </si>
+  <si>
+    <t>how to task management</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GRl8elTn9i4</t>
+  </si>
+  <si>
+    <t>how to field management</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pROuTK65bt4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_zqLOZ70RR4</t>
+  </si>
+  <si>
+    <t>在线升级</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uflR1jKoZUw</t>
+  </si>
+  <si>
+    <t>Motor cable flash</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZvfLqnHGd5M</t>
+  </si>
+  <si>
+    <t>Adb.upgrade system</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Summ5WBYfPg</t>
+  </si>
+  <si>
+    <t>How to upgrade  system</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O3CH-ihEkKA</t>
+  </si>
+  <si>
+    <t>Firmware cable flash</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=97g5Q-sn73A</t>
+  </si>
+  <si>
+    <t>how to load ISOBUS object pool</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iy4yIOav6As</t>
   </si>
 </sst>
 </file>
@@ -370,7 +466,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,23 +1036,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -1060,18 +1156,154 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
